--- a/Arbetstider.xlsx
+++ b/Arbetstider.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arbetstider" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks och buggar" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
   <si>
     <t>Alexander</t>
   </si>
@@ -166,6 +166,21 @@
   </si>
   <si>
     <t>Day</t>
+  </si>
+  <si>
+    <t>Bugs fixed</t>
+  </si>
+  <si>
+    <t>Known bugs</t>
+  </si>
+  <si>
+    <t>Bugs left</t>
+  </si>
+  <si>
+    <t>Tasks done</t>
+  </si>
+  <si>
+    <t>Tasks</t>
   </si>
 </sst>
 </file>
@@ -602,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,9 +763,33 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
       <c r="L6">
         <f>SUM(C6:J6)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1053,39 +1092,39 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ref="C35:J35" si="0">SUM(C4:C32)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L35" s="5">
         <f>SUM(L4:L32)</f>
-        <v>122</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1096,143 +1135,434 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.28515625" customWidth="1"/>
+    <col min="1" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
       <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>42</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>SUM(B2, -C2)</f>
+        <v>42</v>
+      </c>
+      <c r="E2" s="1">
         <v>41373</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>SUM(F2, -G2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <f>D2</f>
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <f>SUM(B3, -C3)</f>
         <v>30</v>
       </c>
-      <c r="C3" s="1">
+      <c r="E3" s="1">
         <v>41374</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>SUM(F3, -G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <f>D3</f>
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>SUM(B4, -C4)</f>
+        <v>26</v>
+      </c>
+      <c r="E4" s="1">
+        <v>41375</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <f>SUM(F4, -G4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>D4</f>
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <f>SUM(B5, -C5)</f>
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <f>SUM(F5, -G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f>D5</f>
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <f>SUM(B6, -C6)</f>
+        <v>26</v>
+      </c>
+      <c r="H6">
+        <f>SUM(F6, -G6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>D6</f>
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <f>SUM(B7, -C7)</f>
+        <v>26</v>
+      </c>
+      <c r="H7">
+        <f>SUM(F7, -G7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f>D7</f>
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <f>SUM(B8, -C8)</f>
+        <v>26</v>
+      </c>
+      <c r="H8">
+        <f>SUM(F8, -G8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f>D8</f>
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <f>SUM(B9, -C9)</f>
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <f>SUM(F9, -G9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f>D9</f>
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <f>SUM(B10, -C10)</f>
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <f>SUM(F10, -G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>D10</f>
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <f>SUM(B11, -C11)</f>
+        <v>26</v>
+      </c>
+      <c r="H11">
+        <f>SUM(F11, -G11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f>D11</f>
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <f>SUM(B12, -C12)</f>
+        <v>26</v>
+      </c>
+      <c r="H12">
+        <f>SUM(F12, -G12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>D12</f>
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <f>SUM(B13, -C13)</f>
+        <v>26</v>
+      </c>
+      <c r="H13">
+        <f>SUM(F13, -G13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f>D13</f>
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <f>SUM(B14, -C14)</f>
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <f>SUM(F14, -G14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f>D14</f>
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <f>SUM(B15, -C15)</f>
+        <v>26</v>
+      </c>
+      <c r="H15">
+        <f>SUM(F15, -G15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f>D15</f>
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <f>SUM(B16, -C16)</f>
+        <v>26</v>
+      </c>
+      <c r="H16">
+        <f>SUM(F16, -G16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f>D16</f>
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <f>SUM(B17, -C17)</f>
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <f>SUM(F17, -G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f>D17</f>
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <f>SUM(B18, -C18)</f>
+        <v>26</v>
+      </c>
+      <c r="H18">
+        <f>SUM(F18, -G18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f>D18</f>
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <f>SUM(B19, -C19)</f>
+        <v>26</v>
+      </c>
+      <c r="H19">
+        <f>SUM(F19, -G19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f>D19</f>
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <f>SUM(B20, -C20)</f>
+        <v>26</v>
+      </c>
+      <c r="H20">
+        <f>SUM(F20, -G20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f>D20</f>
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <f>SUM(B21, -C21)</f>
+        <v>26</v>
+      </c>
+      <c r="H21">
+        <f>SUM(F21, -G21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
+      </c>
+      <c r="B22">
+        <f>D21</f>
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <f>SUM(B22, -C22)</f>
+        <v>26</v>
+      </c>
+      <c r="H22">
+        <f>SUM(F22, -G22)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Arbetstider.xlsx
+++ b/Arbetstider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7995" tabRatio="563" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbetstider" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>Alexander</t>
   </si>
@@ -171,16 +171,28 @@
     <t>Bugs fixed</t>
   </si>
   <si>
-    <t>Known bugs</t>
-  </si>
-  <si>
     <t>Bugs left</t>
   </si>
   <si>
     <t>Tasks done</t>
   </si>
   <si>
-    <t>Tasks</t>
+    <t>Total tasks</t>
+  </si>
+  <si>
+    <t>Tasks added</t>
+  </si>
+  <si>
+    <t>Bugs added</t>
+  </si>
+  <si>
+    <t>Total bugs</t>
+  </si>
+  <si>
+    <t>Total done</t>
+  </si>
+  <si>
+    <t>Total fixed</t>
   </si>
 </sst>
 </file>
@@ -617,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,9 +811,33 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
       <c r="L7">
         <f>SUM(C7:J7)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1092,39 +1128,39 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ref="C35:J35" si="0">SUM(C4:C32)</f>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L35" s="5">
         <f>SUM(L4:L32)</f>
-        <v>186</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1135,19 +1171,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="1" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1155,25 +1191,22 @@
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1183,387 +1216,325 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2">
-        <f>SUM(B2, -C2)</f>
-        <v>42</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="D2" s="1">
         <v>41373</v>
       </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>SUM(F2, -G2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <f>D2</f>
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
-      <c r="D3">
-        <f>SUM(B3, -C3)</f>
-        <v>30</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="1">
         <v>41374</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>SUM(F3, -G3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <f>D3</f>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <f>SUM(B4, -C4)</f>
-        <v>26</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="D4" s="1">
         <v>41375</v>
       </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <f>SUM(F4, -G4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <f>D4</f>
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <f>SUM(B5, -C5)</f>
-        <v>26</v>
-      </c>
-      <c r="H5">
-        <f>SUM(F5, -G5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>41376</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <f>D5</f>
-        <v>26</v>
-      </c>
-      <c r="D6">
-        <f>SUM(B6, -C6)</f>
-        <v>26</v>
-      </c>
-      <c r="H6">
-        <f>SUM(F6, -G6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>41379</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <f>D6</f>
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <f>SUM(B7, -C7)</f>
-        <v>26</v>
-      </c>
-      <c r="H7">
-        <f>SUM(F7, -G7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" s="1">
+        <v>41380</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <f>D7</f>
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <f>SUM(B8, -C8)</f>
-        <v>26</v>
-      </c>
-      <c r="H8">
-        <f>SUM(F8, -G8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="1">
+        <v>41381</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <f>D8</f>
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <f>SUM(B9, -C9)</f>
-        <v>26</v>
-      </c>
-      <c r="H9">
-        <f>SUM(F9, -G9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="1">
+        <v>41382</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <f>D9</f>
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <f>SUM(B10, -C10)</f>
-        <v>26</v>
-      </c>
-      <c r="H10">
-        <f>SUM(F10, -G10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" s="1">
+        <v>41383</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <f>D10</f>
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <f>SUM(B11, -C11)</f>
-        <v>26</v>
-      </c>
-      <c r="H11">
-        <f>SUM(F11, -G11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="1">
+        <v>41386</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <f>D11</f>
-        <v>26</v>
-      </c>
-      <c r="D12">
-        <f>SUM(B12, -C12)</f>
-        <v>26</v>
-      </c>
-      <c r="H12">
-        <f>SUM(F12, -G12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="1">
+        <v>41387</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <f>D12</f>
-        <v>26</v>
-      </c>
-      <c r="D13">
-        <f>SUM(B13, -C13)</f>
-        <v>26</v>
-      </c>
-      <c r="H13">
-        <f>SUM(F13, -G13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="1">
+        <v>41388</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <f>D13</f>
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <f>SUM(B14, -C14)</f>
-        <v>26</v>
-      </c>
-      <c r="H14">
-        <f>SUM(F14, -G14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="1">
+        <v>41389</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <f>D14</f>
-        <v>26</v>
-      </c>
-      <c r="D15">
-        <f>SUM(B15, -C15)</f>
-        <v>26</v>
-      </c>
-      <c r="H15">
-        <f>SUM(F15, -G15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="1">
+        <v>41390</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <f>D15</f>
-        <v>26</v>
-      </c>
-      <c r="D16">
-        <f>SUM(B16, -C16)</f>
-        <v>26</v>
-      </c>
-      <c r="H16">
-        <f>SUM(F16, -G16)</f>
-        <v>0</v>
+      <c r="D16" s="1">
+        <v>41393</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <f>D16</f>
-        <v>26</v>
-      </c>
-      <c r="D17">
-        <f>SUM(B17, -C17)</f>
-        <v>26</v>
-      </c>
-      <c r="H17">
-        <f>SUM(F17, -G17)</f>
-        <v>0</v>
+      <c r="D17" s="1">
+        <v>41394</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <f>D17</f>
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <f>SUM(B18, -C18)</f>
-        <v>26</v>
-      </c>
-      <c r="H18">
-        <f>SUM(F18, -G18)</f>
-        <v>0</v>
+      <c r="D18" s="1">
+        <v>41396</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <f>D18</f>
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <f>SUM(B19, -C19)</f>
-        <v>26</v>
-      </c>
-      <c r="H19">
-        <f>SUM(F19, -G19)</f>
-        <v>0</v>
+      <c r="D19" s="1">
+        <v>41397</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <f>D19</f>
-        <v>26</v>
-      </c>
-      <c r="D20">
-        <f>SUM(B20, -C20)</f>
-        <v>26</v>
-      </c>
-      <c r="H20">
-        <f>SUM(F20, -G20)</f>
-        <v>0</v>
+      <c r="D20" s="1">
+        <v>41400</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21">
-        <f>D20</f>
-        <v>26</v>
-      </c>
-      <c r="D21">
-        <f>SUM(B21, -C21)</f>
-        <v>26</v>
-      </c>
-      <c r="H21">
-        <f>SUM(F21, -G21)</f>
-        <v>0</v>
+      <c r="D21" s="1">
+        <v>41401</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22">
-        <f>D21</f>
-        <v>26</v>
-      </c>
-      <c r="D22">
-        <f>SUM(B22, -C22)</f>
-        <v>26</v>
-      </c>
-      <c r="H22">
-        <f>SUM(F22, -G22)</f>
-        <v>0</v>
-      </c>
+      <c r="D22" s="1">
+        <v>41402</v>
+      </c>
+      <c r="G22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24">
+        <f>SUM(B2:B22)</f>
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <f>SUM(C2:C22)</f>
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H24">
+        <f>SUM(B24, -E24)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25">
+        <f>SUM(E2:E22)</f>
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25">
+        <f>SUM(F2:F22)</f>
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+      <c r="H25">
+        <f>SUM(B25, -E25)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Arbetstider.xlsx
+++ b/Arbetstider.xlsx
@@ -1174,7 +1174,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>41376</v>
@@ -1498,14 +1498,14 @@
       </c>
       <c r="E24">
         <f>SUM(C2:C22)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
         <v>47</v>
       </c>
       <c r="H24">
         <f>SUM(B24, -E24)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">

--- a/Arbetstider.xlsx
+++ b/Arbetstider.xlsx
@@ -9,14 +9,17 @@
   <sheets>
     <sheet name="Arbetstider" sheetId="1" r:id="rId1"/>
     <sheet name="Tasks och buggar" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Progress it.1" sheetId="3" r:id="rId3"/>
+    <sheet name="Progress it.2" sheetId="4" r:id="rId4"/>
+    <sheet name="Progress it.3" sheetId="5" r:id="rId5"/>
+    <sheet name="Progress it.4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="103">
   <si>
     <t>Alexander</t>
   </si>
@@ -193,6 +196,218 @@
   </si>
   <si>
     <t>Total fixed</t>
+  </si>
+  <si>
+    <t>Grupp</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>up</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>olo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>upp</t>
+    </r>
+  </si>
+  <si>
+    <t>Estimaterad tid</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DHD</t>
+    </r>
+  </si>
+  <si>
+    <t>Anslut över LAN</t>
+  </si>
+  <si>
+    <t>Specifiera Port</t>
+  </si>
+  <si>
+    <t>Specifiera IP</t>
+  </si>
+  <si>
+    <t>Fixat socket från Android</t>
+  </si>
+  <si>
+    <t>Skicka int till server</t>
+  </si>
+  <si>
+    <t>Disconnect-knapp</t>
+  </si>
+  <si>
+    <t>Skicka Δx Δy</t>
+  </si>
+  <si>
+    <t>Server GUI</t>
+  </si>
+  <si>
+    <t>4 dagar (32 timmar)</t>
+  </si>
+  <si>
+    <t>Connect socket</t>
+  </si>
+  <si>
+    <t>Skicka input till robot handler</t>
+  </si>
+  <si>
+    <t>Visa lokal IP</t>
+  </si>
+  <si>
+    <t>Visa global IP</t>
+  </si>
+  <si>
+    <t>Bestämma port</t>
+  </si>
+  <si>
+    <t>Känna klient DC, stanna uppe</t>
+  </si>
+  <si>
+    <t>Kunna disconnecta</t>
+  </si>
+  <si>
+    <t>Re-connect</t>
+  </si>
+  <si>
+    <t>App GUI</t>
+  </si>
+  <si>
+    <t>Tid (timmar)</t>
+  </si>
+  <si>
+    <t>Få fram tangentbordet</t>
+  </si>
+  <si>
+    <t>Läs av rörelse</t>
+  </si>
+  <si>
+    <t>Räkna ut Δx Δy</t>
+  </si>
+  <si>
+    <t>Läs av knapptryck</t>
+  </si>
+  <si>
+    <t>Macro GUI</t>
+  </si>
+  <si>
+    <t>Macros</t>
+  </si>
+  <si>
+    <t>Default macros</t>
+  </si>
+  <si>
+    <t>Skicka macros</t>
+  </si>
+  <si>
+    <t>Testa macros</t>
+  </si>
+  <si>
+    <t>Testa mus</t>
+  </si>
+  <si>
+    <t>6 dagar (48 timmar)</t>
+  </si>
+  <si>
+    <t>Simulera musklick</t>
+  </si>
+  <si>
+    <t>Ta skärmdump</t>
+  </si>
+  <si>
+    <t>Simulera knapptryck</t>
+  </si>
+  <si>
+    <t>Ta emot chars</t>
+  </si>
+  <si>
+    <t>Ta emot och hantera mus</t>
+  </si>
+  <si>
+    <t>Ta emot macros</t>
+  </si>
+  <si>
+    <t>2 dagar (16 timmar)</t>
   </si>
 </sst>
 </file>
@@ -258,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -307,6 +522,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -315,13 +579,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -630,7 +906,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,9 +1142,33 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
       <c r="L10">
         <f>SUM(C10:J10)</f>
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1128,39 +1428,39 @@
       </c>
       <c r="C35" s="2">
         <f t="shared" ref="C35:J35" si="0">SUM(C4:C32)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G35" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="I35" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L35" s="5">
         <f>SUM(L4:L32)</f>
-        <v>250</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1474,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1302,8 +1602,20 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6" s="1">
         <v>41379</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -1491,7 +1803,7 @@
       </c>
       <c r="B24">
         <f>SUM(B2:B22)</f>
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
@@ -1505,7 +1817,7 @@
       </c>
       <c r="H24">
         <f>SUM(B24, -E24)</f>
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1514,14 +1826,14 @@
       </c>
       <c r="B25">
         <f>SUM(E2:E22)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>58</v>
       </c>
       <c r="E25">
         <f>SUM(F2:F22)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
         <v>51</v>
@@ -1543,12 +1855,1570 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12">
+        <f>SUM(C2:C8)</f>
+        <v>10.5</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="12">
+        <f>SUM(C10:C18)</f>
+        <v>14</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="12">
+        <f>SUM(C20:C30)</f>
+        <v>15.5</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="8">
+        <v>4</v>
+      </c>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3</v>
+      </c>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="12">
+        <f>SUM(C32:C37)</f>
+        <v>9.5</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="B32:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12">
+        <f>SUM(C2:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="12">
+        <f>SUM(C10:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="12">
+        <f>SUM(C20:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="12">
+        <f>SUM(C32:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12">
+        <f>SUM(C2:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="12">
+        <f>SUM(C10:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="12">
+        <f>SUM(C20:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="12">
+        <f>SUM(C32:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="E15:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="12">
+        <f>SUM(C2:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="12">
+        <f>SUM(C10:C18)</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="12">
+        <f>SUM(C20:C30)</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="12">
+        <f>SUM(C32:C37)</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Arbetstider.xlsx
+++ b/Arbetstider.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="150">
   <si>
     <t>Alexander</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Dag 20</t>
-  </si>
-  <si>
-    <t>Dag 21</t>
   </si>
   <si>
     <t>Datum</t>
@@ -408,6 +405,162 @@
   </si>
   <si>
     <t>2 dagar (16 timmar)</t>
+  </si>
+  <si>
+    <t>Ändra macro label vid tryck</t>
+  </si>
+  <si>
+    <t>Handshake @server</t>
+  </si>
+  <si>
+    <t>Val av lösenord @server</t>
+  </si>
+  <si>
+    <t>Generera 4-siffrig pinkod</t>
+  </si>
+  <si>
+    <t>Skicka pilar/start slide</t>
+  </si>
+  <si>
+    <t>Kontrollera input ip/port</t>
+  </si>
+  <si>
+    <t>Kontrollera format ip/port</t>
+  </si>
+  <si>
+    <t>Anslut via public IP</t>
+  </si>
+  <si>
+    <t>Skilja klicka/dra @android</t>
+  </si>
+  <si>
+    <t>4,5 dagar (40 timmar)</t>
+  </si>
+  <si>
+    <t>Haptic feedback on click</t>
+  </si>
+  <si>
+    <t>Two-finger tap = right click</t>
+  </si>
+  <si>
+    <t>Spara IP som lista</t>
+  </si>
+  <si>
+    <t>Lista GUI</t>
+  </si>
+  <si>
+    <t>Spara lista som fil</t>
+  </si>
+  <si>
+    <t>5 dagar (40 timmar)</t>
+  </si>
+  <si>
+    <t>Tillgängliggöra download</t>
+  </si>
+  <si>
+    <t>3 dagar (24 timmar)</t>
+  </si>
+  <si>
+    <t>Skicka skärmdump @server</t>
+  </si>
+  <si>
+    <t>GUI Knappar med skärmnr.</t>
+  </si>
+  <si>
+    <t>Skriva hjälptext</t>
+  </si>
+  <si>
+    <t>GUI hjälpknapp</t>
+  </si>
+  <si>
+    <t>2,5 dagar (20 timmar)</t>
+  </si>
+  <si>
+    <t>GUI lösenord @server</t>
+  </si>
+  <si>
+    <t>GUI lösenord @android</t>
+  </si>
+  <si>
+    <t>Hantera handshake @android</t>
+  </si>
+  <si>
+    <t>Ta emot/hantera piltangenter</t>
+  </si>
+  <si>
+    <t>Hantera lösen innan remote</t>
+  </si>
+  <si>
+    <t>Ta emot skärmdump @android</t>
+  </si>
+  <si>
+    <t>Visa bilder @android</t>
+  </si>
+  <si>
+    <t>Hantera skärmdump @server</t>
+  </si>
+  <si>
+    <t>Skicka bilder</t>
+  </si>
+  <si>
+    <t>Separat konsollfönster</t>
+  </si>
+  <si>
+    <t>Visa debug i konsollfönster</t>
+  </si>
+  <si>
+    <t>Dropdown GUI</t>
+  </si>
+  <si>
+    <t>Settings GUI</t>
+  </si>
+  <si>
+    <t>Förslag till nytt utseende</t>
+  </si>
+  <si>
+    <t>1,5 dagar (12 timmar)</t>
+  </si>
+  <si>
+    <t>3,5 dagar (28 timmar)</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>up</t>
+    </r>
+  </si>
+  <si>
+    <t>Async task connection</t>
+  </si>
+  <si>
+    <t>Universella mediaknappar?</t>
+  </si>
+  <si>
+    <t>Koppla mediaknappar</t>
+  </si>
+  <si>
+    <t>Hantera mediaknappar</t>
+  </si>
+  <si>
+    <t>GUI mediaknappar</t>
+  </si>
+  <si>
+    <t>Testa tangentbord</t>
+  </si>
+  <si>
+    <t>Skicka mindre bilder</t>
+  </si>
+  <si>
+    <t>4,5 dagar (36 timmar)</t>
   </si>
 </sst>
 </file>
@@ -579,7 +732,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -598,6 +751,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -614,6 +770,1290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tasks added</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Tasks och buggar'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>41373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41386</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41389</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41393</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tasks och buggar'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Tasks done</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Tasks och buggar'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>41373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41386</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41389</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41393</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tasks och buggar'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="56319488"/>
+        <c:axId val="44923648"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="56319488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44923648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="44923648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56319488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="accent1"/>
+      </a:solidFill>
+    </a:ln>
+    <a:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </a:scene3d>
+    <a:sp3d>
+      <a:bevelT/>
+      <a:bevelB/>
+    </a:sp3d>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Bugs added</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Tasks och buggar'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>41373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41386</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41389</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41393</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tasks och buggar'!$E$2:$E$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Bugs fixed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Tasks och buggar'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>41373</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>41380</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>41381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41383</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41386</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41387</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41388</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41389</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>41390</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>41393</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41394</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41396</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41397</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>41400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tasks och buggar'!$F$2:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="104943616"/>
+        <c:axId val="108235584"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="104943616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108235584"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="108235584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="104943616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tasks och buggar'!$A$26:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="108239040"/>
+        <c:axId val="108239616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="108239040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108239616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108239616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" b="0">
+                    <a:latin typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                    <a:cs typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE" b="0" baseline="0">
+                    <a:latin typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                    <a:cs typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                  </a:rPr>
+                  <a:t> left</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" b="0">
+                  <a:latin typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                  <a:cs typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108239040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Tasks och buggar'!$A$48:$A$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="108899136"/>
+        <c:axId val="108899712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="108899136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108899712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="108899712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="sv-SE" b="0">
+                    <a:latin typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                    <a:cs typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                  </a:rPr>
+                  <a:t>Tasks</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="sv-SE" b="0" baseline="0">
+                    <a:latin typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                    <a:cs typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                  </a:rPr>
+                  <a:t> left</a:t>
+                </a:r>
+                <a:endParaRPr lang="sv-SE" b="0">
+                  <a:latin typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                  <a:cs typeface="Aharoni" pitchFamily="2" charset="-79"/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="108899136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1" title="Tasks"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -903,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,14 +2355,15 @@
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
     <col min="3" max="10" width="14.28515625" customWidth="1"/>
     <col min="11" max="11" width="0.7109375" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -950,10 +2391,10 @@
       </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -970,9 +2411,13 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-    </row>
-    <row r="3" spans="1:12" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <f>SUM(L3:L7)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1008,7 +2453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -1044,7 +2489,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1080,7 +2525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1116,8 +2561,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -1134,8 +2579,12 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <f>SUM(L10:L14)</f>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1171,56 +2620,152 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
       <c r="L11">
         <f>SUM(C11:J11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
       <c r="L12">
         <f>SUM(C12:J12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>8</v>
+      </c>
       <c r="L13">
         <f>SUM(C13:J13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>7</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
       <c r="L14">
         <f>SUM(C14:J14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
@@ -1237,69 +2782,193 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f>SUM(L17:L21)</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
       </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>8</v>
+      </c>
       <c r="L17">
         <f>SUM(C17:J17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
       <c r="L18">
         <f>SUM(C18:J18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
       <c r="L19">
         <f>SUM(C19:J19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
       </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>7</v>
+      </c>
+      <c r="F20">
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>7</v>
+      </c>
       <c r="L20">
         <f>SUM(C20:J20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
       </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>7</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
       <c r="L21">
         <f>SUM(C21:J21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>19</v>
       </c>
@@ -1316,58 +2985,158 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <f>SUM(L24:L28)</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>8</v>
+      </c>
       <c r="L24">
         <f>SUM(C24:J24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>6</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
       <c r="L25">
         <f>SUM(C25:J25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
       </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+      <c r="F27">
+        <v>7</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>7</v>
+      </c>
+      <c r="J27">
+        <v>7</v>
+      </c>
       <c r="L27">
         <f>SUM(C27:J27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>5</v>
+      </c>
       <c r="L28">
         <f>SUM(C28:J28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
@@ -1384,8 +3153,12 @@
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <f>SUM(L31:L32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="11.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -1397,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1409,58 +3182,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-      <c r="L33">
-        <f>SUM(C33:J33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="2">
-        <f t="shared" ref="C35:J35" si="0">SUM(C4:C32)</f>
-        <v>40</v>
-      </c>
-      <c r="D35" s="2">
+    <row r="33" spans="1:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" ref="C34:J34" si="0">SUM(C4:C32)</f>
+        <v>132</v>
+      </c>
+      <c r="D34" s="2">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="E35" s="2">
+        <v>128</v>
+      </c>
+      <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="F35" s="2">
+        <v>128</v>
+      </c>
+      <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="G35" s="2">
+        <v>132</v>
+      </c>
+      <c r="G34" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H35" s="2">
+        <v>132</v>
+      </c>
+      <c r="H34" s="2">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="I35" s="2">
+        <v>129</v>
+      </c>
+      <c r="I34" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="J35" s="2">
+        <v>131</v>
+      </c>
+      <c r="J34" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="L35" s="5">
+        <v>126</v>
+      </c>
+      <c r="L34" s="5">
         <f>SUM(L4:L32)</f>
-        <v>314</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -1471,10 +3232,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,25 +3246,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1589,10 +3350,10 @@
         <v>41376</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1612,7 +3373,7 @@
         <v>41379</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1625,8 +3386,20 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
       <c r="D7" s="1">
         <v>41380</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
       </c>
       <c r="G7">
         <v>6</v>
@@ -1636,9 +3409,21 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
       <c r="D8" s="1">
         <v>41381</v>
       </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
       <c r="G8">
         <v>7</v>
       </c>
@@ -1647,8 +3432,20 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
       <c r="D9" s="1">
         <v>41382</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
       </c>
       <c r="G9">
         <v>8</v>
@@ -1658,8 +3455,20 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="D10" s="1">
         <v>41383</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
       </c>
       <c r="G10">
         <v>9</v>
@@ -1669,8 +3478,20 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11" s="1">
         <v>41386</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
       </c>
       <c r="G11">
         <v>10</v>
@@ -1680,8 +3501,20 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
       <c r="D12" s="1">
         <v>41387</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
       </c>
       <c r="G12">
         <v>11</v>
@@ -1691,8 +3524,20 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
       <c r="D13" s="1">
         <v>41388</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
       </c>
       <c r="G13">
         <v>12</v>
@@ -1702,8 +3547,20 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
       <c r="D14" s="1">
         <v>41389</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
       </c>
       <c r="G14">
         <v>13</v>
@@ -1713,8 +3570,20 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15" s="1">
         <v>41390</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
       </c>
       <c r="G15">
         <v>14</v>
@@ -1724,8 +3593,20 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
       <c r="D16" s="1">
         <v>41393</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
       </c>
       <c r="G16">
         <v>15</v>
@@ -1735,8 +3616,20 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
       <c r="D17" s="1">
         <v>41394</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
       </c>
       <c r="G17">
         <v>16</v>
@@ -1746,8 +3639,20 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="D18" s="1">
         <v>41396</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
       </c>
       <c r="G18">
         <v>17</v>
@@ -1787,69 +3692,310 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="D22" s="1">
-        <v>41402</v>
-      </c>
-      <c r="G22">
-        <v>21</v>
-      </c>
+      <c r="D22" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <f>SUM(B2:B22)</f>
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <f>SUM(C2:C22)</f>
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24">
         <f>SUM(B24, -E24)</f>
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B25">
         <f>SUM(E2:E22)</f>
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25">
         <f>SUM(F2:F22)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25">
         <f>SUM(B25, -E25)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <f>SUM(B2,-C2)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <f t="shared" ref="A27:A45" si="0">SUM(A26,B3,-C3)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <f>SUM(E2,-F2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <f t="shared" ref="A49:A67" si="1">SUM(A48,E3,-F3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="16"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1857,498 +4003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="8">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="12">
-        <f>SUM(C2:C8)</f>
-        <v>10.5</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="6">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1.5</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="8">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="8">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="12">
-        <f>SUM(C10:C18)</f>
-        <v>14</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="8">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="8">
-        <v>4</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="8">
-        <v>1</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="8">
-        <v>1</v>
-      </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="8">
-        <v>2</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="12">
-        <f>SUM(C20:C30)</f>
-        <v>15.5</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34" s="8">
-        <v>4</v>
-      </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" s="8">
-        <v>1</v>
-      </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="8">
-        <v>3</v>
-      </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="12">
-        <f>SUM(C32:C37)</f>
-        <v>9.5</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="B32:C37"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,340 +4017,472 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2</v>
+      </c>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="12">
         <f>SUM(C2:C8)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1.5</v>
+      </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2</v>
+      </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="12">
         <f>SUM(C10:C18)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="8">
+        <v>3</v>
+      </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="8">
+        <v>4</v>
+      </c>
       <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1</v>
+      </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2</v>
+      </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
+        <v>64</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
       <c r="D30" s="9"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="12">
         <f>SUM(C20:C30)</f>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.5</v>
+      </c>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="8">
+        <v>4</v>
+      </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
       <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="8">
+        <v>3</v>
+      </c>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
+        <v>62</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.5</v>
+      </c>
       <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="12">
         <f>SUM(C32:C37)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2703,12 +4491,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2721,340 +4509,652 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
       <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="14">
+        <v>2</v>
+      </c>
       <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
+        <v>60</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="14">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="12">
+        <f>SUM(C2:C10)</f>
+        <v>18</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="12">
-        <f>SUM(C2:C8)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="14">
+        <v>16</v>
+      </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="14">
+        <v>2</v>
+      </c>
       <c r="D14" s="9"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="12">
+        <f>SUM(C12:C16)</f>
+        <v>34.5</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="8">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="14">
+        <v>8</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="12">
+        <f>SUM(C18:C23)</f>
+        <v>30</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B25" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="14">
+        <v>16</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="14">
+        <v>1</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="12">
+        <f>SUM(C25:C28)</f>
+        <v>21</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="8">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="8">
+        <v>4</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="8">
+        <v>16</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="14">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="12">
+        <f>SUM(C2:C6)</f>
+        <v>32</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="12">
+        <f>SUM(C8:C10)</f>
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="12">
+        <f>SUM(C12:C13)</f>
+        <v>5</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="6">
+        <v>8</v>
+      </c>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
+      <c r="B16" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2</v>
+      </c>
       <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
+      <c r="B17" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2</v>
+      </c>
       <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1</v>
+      </c>
       <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="12">
-        <f>SUM(C10:C18)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>74</v>
-      </c>
+      <c r="B19" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" s="14">
+        <v>3</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
+      <c r="A20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="14">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="12">
-        <f>SUM(C20:C30)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="12">
-        <f>SUM(C32:C37)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>102</v>
+      <c r="A21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="12">
+        <f>SUM(C15:C20)</f>
+        <v>17</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3081,21 +5181,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -3103,7 +5203,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -3111,7 +5211,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -3119,7 +5219,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -3127,7 +5227,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3135,7 +5235,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3143,7 +5243,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -3151,22 +5251,22 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="12">
         <f>SUM(C2:C8)</f>
         <v>0</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -3174,7 +5274,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3182,7 +5282,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3190,7 +5290,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -3198,7 +5298,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3206,7 +5306,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3214,7 +5314,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3222,7 +5322,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -3230,7 +5330,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -3238,22 +5338,22 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="12">
         <f>SUM(C10:C18)</f>
         <v>0</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -3261,7 +5361,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3269,7 +5369,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3277,7 +5377,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3285,7 +5385,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3293,7 +5393,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3301,7 +5401,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3309,7 +5409,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3317,7 +5417,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3325,7 +5425,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3333,7 +5433,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3341,22 +5441,22 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="12">
         <f>SUM(C20:C30)</f>
         <v>0</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -3364,7 +5464,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3372,7 +5472,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3380,7 +5480,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3388,7 +5488,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3396,7 +5496,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3404,17 +5504,17 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="12">
         <f>SUM(C32:C37)</f>
         <v>0</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
